--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -48,7 +48,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Encounter Profile for EHMIS</t>
+    <t>Encounter for EHMIS</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T10:18:47+05:45</t>
+    <t>2025-08-08T09:35:18+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Integrated Health Information Management Section (https://hmis.gov.np, it@hmis.gov.np)</t>
   </si>
   <si>
-    <t>RC Poudel (rcpoudel@amakomaya.com(Work))</t>
+    <t>RC Poudel (rcpoudel@amakomaya.com, rmchndrapdl@gmail.com, ph: +977-9851341921)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1654,7 +1654,7 @@
     <t>PatientEHMIS</t>
   </si>
   <si>
-    <t>Patient Profile for EHMIS</t>
+    <t>Patient for EHMIS</t>
   </si>
   <si>
     <t>Demographics and identifiers for patients in Nepal EHMIS</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/StructureDefinition/ethnic-code</t>
+    <t>https://fhir.hmis.gov.np/StructureDefinition/ethnic-code</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="336">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -350,6 +350,729 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>patient-nepal</t>
+  </si>
+  <si>
+    <t>http://hmis.gov.np/fhir/StructureDefinition/patient-nepal</t>
+  </si>
+  <si>
+    <t>PatientNepal</t>
+  </si>
+  <si>
+    <t>Patient Profile for Nepal</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
+  </si>
+  <si>
+    <t>Information about an individual or animal receiving health care services</t>
+  </si>
+  <si>
+    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.id</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>Patient.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this patient's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this patient record is in active use. 
+Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
+It is often used to filter patient lists to exclude inactive patients
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.</t>
+  </si>
+  <si>
+    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>Patient.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the patient</t>
+  </si>
+  <si>
+    <t>A name associated with the individual.</t>
+  </si>
+  <si>
+    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns. Animal names may be communicated as given names, and optionally may include a family name.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>Patient.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the individual</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
+  </si>
+  <si>
+    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>Patient.gender</t>
+  </si>
+  <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
+  </si>
+  <si>
+    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|5.0.0</t>
+  </si>
+  <si>
+    <t>Patient.birthDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual.</t>
+  </si>
+  <si>
+    <t>Partial dates are allowed if the specific date of birth is unknown. There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
+  </si>
+  <si>
+    <t>Age of the individual drives many clinical processes.</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x]</t>
+  </si>
+  <si>
+    <t>boolean
+dateTime</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
+  </si>
+  <si>
+    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
+  </si>
+  <si>
+    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+  </si>
+  <si>
+    <t>Patient.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>An address for the individual</t>
+  </si>
+  <si>
+    <t>An address for the individual.</t>
+  </si>
+  <si>
+    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus</t>
+  </si>
+  <si>
+    <t>Marital (civil) status of a patient</t>
+  </si>
+  <si>
+    <t>This field contains a patient's most recent marital (civil) status.</t>
+  </si>
+  <si>
+    <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The domestic partnership status of a person.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+  </si>
+  <si>
+    <t>Patient.multipleBirth[x]</t>
+  </si>
+  <si>
+    <t>boolean
+integer</t>
+  </si>
+  <si>
+    <t>Whether patient is part of a multiple birth</t>
+  </si>
+  <si>
+    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
+  </si>
+  <si>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
+  </si>
+  <si>
+    <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.</t>
+  </si>
+  <si>
+    <t>Patient.photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Image of the patient</t>
+  </si>
+  <si>
+    <t>Image of the patient.</t>
+  </si>
+  <si>
+    <t>Guidelines:
+* Use id photos, not clinical photos.
+* Limit dimensions to thumbnail.
+* Keep byte count low to ease resource updates.</t>
+  </si>
+  <si>
+    <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
+  </si>
+  <si>
+    <t>Patient.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient</t>
+  </si>
+  <si>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient.</t>
+  </si>
+  <si>
+    <t>Contact covers all kinds of contact parties: family members, business contacts, guardians, caregivers. Not applicable to register pedigree and family ties beyond use of having contact.</t>
+  </si>
+  <si>
+    <t>Need to track people you can contact about the patient.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.contact.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Patient.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship</t>
+  </si>
+  <si>
+    <t>The kind of relationship</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between the patient and the contact person.</t>
+  </si>
+  <si>
+    <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+  </si>
+  <si>
+    <t>Patient.contact.name</t>
+  </si>
+  <si>
+    <t>A name associated with the contact person</t>
+  </si>
+  <si>
+    <t>A name associated with the contact person.</t>
+  </si>
+  <si>
+    <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pat-1
+</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the person</t>
+  </si>
+  <si>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
+  </si>
+  <si>
+    <t>Patient.contact.address</t>
+  </si>
+  <si>
+    <t>Address for the contact person</t>
+  </si>
+  <si>
+    <t>Address for the contact person.</t>
+  </si>
+  <si>
+    <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>Patient.contact.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that is associated with the contact</t>
+  </si>
+  <si>
+    <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
+  </si>
+  <si>
+    <t>For guardians or business related contacts, the organization is relevant.</t>
+  </si>
+  <si>
+    <t>Patient.contact.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
+  </si>
+  <si>
+    <t>The period during which this contact person or organization is valid to be contacted relating to this patient.</t>
+  </si>
+  <si>
+    <t>Patient.communication</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health.</t>
+  </si>
+  <si>
+    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.</t>
+  </si>
+  <si>
+    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
+  </si>
+  <si>
+    <t>Patient.communication.id</t>
+  </si>
+  <si>
+    <t>Patient.communication.extension</t>
+  </si>
+  <si>
+    <t>Patient.communication.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.communication.language</t>
+  </si>
+  <si>
+    <t>The language which can be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-AU" for Australian English.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+  </si>
+  <si>
+    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
+  </si>
+  <si>
+    <t>Patient.communication.preferred</t>
+  </si>
+  <si>
+    <t>Language preference indicator</t>
+  </si>
+  <si>
+    <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).</t>
+  </si>
+  <si>
+    <t>This language is specifically identified for communicating healthcare information.</t>
+  </si>
+  <si>
+    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method.</t>
+  </si>
+  <si>
+    <t>Patient.generalPractitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careProvider
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Patient's nominated primary care provider</t>
+  </si>
+  <si>
+    <t>Patient's nominated care provider.</t>
+  </si>
+  <si>
+    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
+Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
+Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.</t>
+  </si>
+  <si>
+    <t>Patient.managingOrganization</t>
+  </si>
+  <si>
+    <t>Organization that is the custodian of the patient record</t>
+  </si>
+  <si>
+    <t>Organization that is the custodian of the patient record.</t>
+  </si>
+  <si>
+    <t>There is only one managing organization for a specific patient record. Other organizations will have their own Patient record, and may use the Link property to join the records together (or a Person resource which can include confidence ratings for the association).</t>
+  </si>
+  <si>
+    <t>Need to know who recognizes this patient record, manages and updates it.</t>
+  </si>
+  <si>
+    <t>Patient.link</t>
+  </si>
+  <si>
+    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual</t>
+  </si>
+  <si>
+    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual.</t>
+  </si>
+  <si>
+    <t>There is no assumption that linked patient records have mutual links.</t>
+  </si>
+  <si>
+    <t>There are multiple use cases:   
+* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
+* Distribution of patient information across multiple servers.</t>
+  </si>
+  <si>
+    <t>Patient.link.id</t>
+  </si>
+  <si>
+    <t>Patient.link.extension</t>
+  </si>
+  <si>
+    <t>Patient.link.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.link.other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>The other patient or related person resource that the link refers to</t>
+  </si>
+  <si>
+    <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
+  </si>
+  <si>
+    <t>Patient.link.type</t>
+  </si>
+  <si>
+    <t>replaced-by | replaces | refer | seealso</t>
+  </si>
+  <si>
+    <t>The type of link between this patient resource and another patient resource.</t>
+  </si>
+  <si>
+    <t>The type of link between this patient resource and another Patient resource, or Patient/RelatedPerson when using the `seealso` code</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/link-type|5.0.0</t>
   </si>
 </sst>
 </file>
@@ -483,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -673,6 +1396,178 @@
         <v>42</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -680,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -689,11 +1584,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.41796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="11.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="7.046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="33.17578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.30078125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="3.953125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.265625" customWidth="true" bestFit="true"/>
@@ -703,7 +1598,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="196.0390625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -714,14 +1609,14 @@
     <col min="23" max="23" width="13.91796875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.08203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="15.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="103.3984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="45.25390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="34.578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="13.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="15.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="8.22265625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -1356,6 +2251,4759 @@
         <v>108</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Q38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Q42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Q45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13845" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13050" uniqueCount="1340">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3284,190 +3284,12 @@
     <t>NationalID</t>
   </si>
   <si>
-    <t>Patient.identifier:NationalID.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NationalID.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NationalID.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NationalID.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NationalID.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>https://mohp.gov.np/health-id</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NationalID.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ident-1
-</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NationalID.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NationalID.assigner</t>
-  </si>
-  <si>
-    <t>Patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
     <t>Patient.identifier:HealthID</t>
   </si>
   <si>
     <t>HealthID</t>
   </si>
   <si>
-    <t>Patient.identifier:HealthID.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:HealthID.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:HealthID.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:HealthID.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:HealthID.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:HealthID.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:HealthID.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:HealthID.assigner</t>
-  </si>
-  <si>
     <t>Patient.identifier:SystemID</t>
   </si>
   <si>
@@ -3478,33 +3300,6 @@
   </si>
   <si>
     <t>MasterID</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.system</t>
-  </si>
-  <si>
-    <t>http://hmis.gov.np/master-id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MasterID.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3562,6 +3357,9 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -5760,7 +5558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK413"/>
+  <dimension ref="A1:AK389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5788,7 +5586,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="25.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.9609375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="34.2421875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="13.609375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="13.91796875" customWidth="true" bestFit="true"/>
@@ -38407,9 +38205,11 @@
         <v>1048</v>
       </c>
       <c r="C314" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="D314" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
         <v>79</v>
       </c>
@@ -38427,19 +38227,21 @@
         <v>79</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>87</v>
+        <v>1041</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>88</v>
+        <v>1042</v>
       </c>
       <c r="O314" s="2"/>
-      <c r="P314" s="2"/>
+      <c r="P314" t="s" s="2">
+        <v>1043</v>
+      </c>
       <c r="Q314" t="s" s="2">
         <v>79</v>
       </c>
@@ -38487,19 +38289,19 @@
         <v>79</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>89</v>
+        <v>1039</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="315">
@@ -38510,18 +38312,20 @@
         <v>1050</v>
       </c>
       <c r="C315" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="D315" t="s" s="2">
         <v>1051</v>
       </c>
-      <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H315" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I315" t="s" s="2">
         <v>79</v>
@@ -38530,21 +38334,21 @@
         <v>79</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>94</v>
+        <v>1041</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P315" s="2"/>
+        <v>1042</v>
+      </c>
+      <c r="O315" s="2"/>
+      <c r="P315" t="s" s="2">
+        <v>1043</v>
+      </c>
       <c r="Q315" t="s" s="2">
         <v>79</v>
       </c>
@@ -38580,19 +38384,19 @@
         <v>79</v>
       </c>
       <c r="AC315" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD315" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AE315" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>100</v>
+        <v>1039</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>80</v>
@@ -38604,7 +38408,7 @@
         <v>79</v>
       </c>
       <c r="AK315" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="316">
@@ -38615,9 +38419,11 @@
         <v>1052</v>
       </c>
       <c r="C316" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="D316" t="s" s="2">
         <v>1053</v>
       </c>
-      <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
         <v>79</v>
       </c>
@@ -38632,25 +38438,23 @@
         <v>79</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K316" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>1055</v>
-      </c>
-      <c r="O316" t="s" s="2">
-        <v>1056</v>
-      </c>
+        <v>1042</v>
+      </c>
+      <c r="O316" s="2"/>
       <c r="P316" t="s" s="2">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="Q316" t="s" s="2">
         <v>79</v>
@@ -38660,7 +38464,7 @@
         <v>79</v>
       </c>
       <c r="T316" t="s" s="2">
-        <v>1058</v>
+        <v>79</v>
       </c>
       <c r="U316" t="s" s="2">
         <v>79</v>
@@ -38675,13 +38479,13 @@
         <v>79</v>
       </c>
       <c r="Y316" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z316" t="s" s="2">
-        <v>1059</v>
+        <v>79</v>
       </c>
       <c r="AA316" t="s" s="2">
-        <v>1060</v>
+        <v>79</v>
       </c>
       <c r="AB316" t="s" s="2">
         <v>79</v>
@@ -38699,13 +38503,13 @@
         <v>79</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>1061</v>
+        <v>1039</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ316" t="s" s="2">
         <v>79</v>
@@ -38719,10 +38523,10 @@
         <v>1018</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38739,30 +38543,32 @@
         <v>79</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K317" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="O317" t="s" s="2">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="P317" t="s" s="2">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="Q317" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R317" s="2"/>
+      <c r="R317" t="s" s="2">
+        <v>1059</v>
+      </c>
       <c r="S317" t="s" s="2">
         <v>79</v>
       </c>
@@ -38782,13 +38588,13 @@
         <v>79</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z317" t="s" s="2">
-        <v>1068</v>
+        <v>79</v>
       </c>
       <c r="AA317" t="s" s="2">
-        <v>1069</v>
+        <v>79</v>
       </c>
       <c r="AB317" t="s" s="2">
         <v>79</v>
@@ -38806,7 +38612,7 @@
         <v>79</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>80</v>
@@ -38826,10 +38632,10 @@
         <v>1018</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38852,19 +38658,19 @@
         <v>228</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="O318" t="s" s="2">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="P318" t="s" s="2">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="Q318" t="s" s="2">
         <v>79</v>
@@ -38874,10 +38680,10 @@
         <v>79</v>
       </c>
       <c r="T318" t="s" s="2">
-        <v>1077</v>
+        <v>79</v>
       </c>
       <c r="U318" t="s" s="2">
-        <v>1078</v>
+        <v>79</v>
       </c>
       <c r="V318" t="s" s="2">
         <v>79</v>
@@ -38913,13 +38719,13 @@
         <v>79</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ318" t="s" s="2">
         <v>79</v>
@@ -38933,10 +38739,10 @@
         <v>1018</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1081</v>
+        <v>1065</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38956,20 +38762,18 @@
         <v>79</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1082</v>
+        <v>87</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>1083</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>1084</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
         <v>79</v>
@@ -38982,7 +38786,7 @@
         <v>79</v>
       </c>
       <c r="U319" t="s" s="2">
-        <v>1085</v>
+        <v>79</v>
       </c>
       <c r="V319" t="s" s="2">
         <v>79</v>
@@ -39018,7 +38822,7 @@
         <v>79</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>1086</v>
+        <v>89</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>80</v>
@@ -39027,10 +38831,10 @@
         <v>85</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>1087</v>
+        <v>90</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="320">
@@ -39038,21 +38842,21 @@
         <v>1018</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H320" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I320" t="s" s="2">
         <v>79</v>
@@ -39061,18 +38865,20 @@
         <v>79</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>472</v>
+        <v>93</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1090</v>
+        <v>94</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="O320" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
         <v>79</v>
@@ -39109,31 +38915,31 @@
         <v>79</v>
       </c>
       <c r="AC320" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AD320" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AE320" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>1092</v>
+        <v>100</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI320" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ320" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK320" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="321">
@@ -39141,10 +38947,10 @@
         <v>1018</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1093</v>
+        <v>1067</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1094</v>
+        <v>1067</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39152,7 +38958,7 @@
       </c>
       <c r="F321" s="2"/>
       <c r="G321" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H321" t="s" s="2">
         <v>85</v>
@@ -39161,24 +38967,26 @@
         <v>79</v>
       </c>
       <c r="J321" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K321" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>1095</v>
+        <v>1068</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1096</v>
+        <v>1069</v>
       </c>
       <c r="O321" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="P321" s="2"/>
+        <v>1070</v>
+      </c>
+      <c r="P321" t="s" s="2">
+        <v>1071</v>
+      </c>
       <c r="Q321" t="s" s="2">
         <v>79</v>
       </c>
@@ -39187,7 +38995,7 @@
         <v>79</v>
       </c>
       <c r="T321" t="s" s="2">
-        <v>79</v>
+        <v>1072</v>
       </c>
       <c r="U321" t="s" s="2">
         <v>79</v>
@@ -39202,13 +39010,13 @@
         <v>79</v>
       </c>
       <c r="Y321" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z321" t="s" s="2">
-        <v>79</v>
+        <v>1073</v>
       </c>
       <c r="AA321" t="s" s="2">
-        <v>79</v>
+        <v>1074</v>
       </c>
       <c r="AB321" t="s" s="2">
         <v>79</v>
@@ -39226,7 +39034,7 @@
         <v>79</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>1098</v>
+        <v>1075</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>80</v>
@@ -39246,20 +39054,18 @@
         <v>1018</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1099</v>
+        <v>1076</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="D322" t="s" s="2">
-        <v>1100</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H322" t="s" s="2">
         <v>85</v>
@@ -39274,17 +39080,19 @@
         <v>228</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="O322" s="2"/>
+        <v>1078</v>
+      </c>
+      <c r="O322" t="s" s="2">
+        <v>1079</v>
+      </c>
       <c r="P322" t="s" s="2">
-        <v>1043</v>
+        <v>1080</v>
       </c>
       <c r="Q322" t="s" s="2">
         <v>79</v>
@@ -39333,13 +39141,13 @@
         <v>79</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>1039</v>
+        <v>1081</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI322" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ322" t="s" s="2">
         <v>79</v>
@@ -39353,18 +39161,18 @@
         <v>1018</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1049</v>
+        <v>1082</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
-        <v>79</v>
+        <v>1083</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H323" t="s" s="2">
         <v>85</v>
@@ -39376,18 +39184,20 @@
         <v>79</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>87</v>
+        <v>1084</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O323" s="2"/>
+        <v>1085</v>
+      </c>
+      <c r="O323" t="s" s="2">
+        <v>1086</v>
+      </c>
       <c r="P323" s="2"/>
       <c r="Q323" t="s" s="2">
         <v>79</v>
@@ -39436,7 +39246,7 @@
         <v>79</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>89</v>
+        <v>1087</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>80</v>
@@ -39445,10 +39255,10 @@
         <v>85</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AK323" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="324">
@@ -39456,18 +39266,18 @@
         <v>1018</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1051</v>
+        <v>1088</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
-        <v>92</v>
+        <v>1089</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H324" t="s" s="2">
         <v>81</v>
@@ -39479,19 +39289,19 @@
         <v>79</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>94</v>
+        <v>1090</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>95</v>
+        <v>1091</v>
       </c>
       <c r="O324" t="s" s="2">
-        <v>96</v>
+        <v>1092</v>
       </c>
       <c r="P324" s="2"/>
       <c r="Q324" t="s" s="2">
@@ -39529,19 +39339,19 @@
         <v>79</v>
       </c>
       <c r="AC324" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD324" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AE324" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>100</v>
+        <v>1093</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>80</v>
@@ -39553,7 +39363,7 @@
         <v>79</v>
       </c>
       <c r="AK324" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="325">
@@ -39561,10 +39371,10 @@
         <v>1018</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1053</v>
+        <v>1094</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39575,32 +39385,28 @@
         <v>80</v>
       </c>
       <c r="H325" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I325" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K325" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>1054</v>
+        <v>1095</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>1055</v>
-      </c>
-      <c r="O325" t="s" s="2">
-        <v>1056</v>
-      </c>
-      <c r="P325" t="s" s="2">
-        <v>1057</v>
-      </c>
+        <v>1096</v>
+      </c>
+      <c r="O325" s="2"/>
+      <c r="P325" s="2"/>
       <c r="Q325" t="s" s="2">
         <v>79</v>
       </c>
@@ -39609,7 +39415,7 @@
         <v>79</v>
       </c>
       <c r="T325" t="s" s="2">
-        <v>1058</v>
+        <v>79</v>
       </c>
       <c r="U325" t="s" s="2">
         <v>79</v>
@@ -39624,13 +39430,13 @@
         <v>79</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>1059</v>
+        <v>79</v>
       </c>
       <c r="AA325" t="s" s="2">
-        <v>1060</v>
+        <v>79</v>
       </c>
       <c r="AB325" t="s" s="2">
         <v>79</v>
@@ -39648,13 +39454,13 @@
         <v>79</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>1061</v>
+        <v>1097</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI325" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ325" t="s" s="2">
         <v>79</v>
@@ -39668,10 +39474,10 @@
         <v>1018</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1063</v>
+        <v>1098</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39682,7 +39488,7 @@
         <v>80</v>
       </c>
       <c r="H326" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I326" t="s" s="2">
         <v>79</v>
@@ -39694,20 +39500,16 @@
         <v>228</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>1064</v>
+        <v>1099</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="O326" t="s" s="2">
-        <v>1066</v>
-      </c>
-      <c r="P326" t="s" s="2">
-        <v>1067</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="O326" s="2"/>
+      <c r="P326" s="2"/>
       <c r="Q326" t="s" s="2">
         <v>79</v>
       </c>
@@ -39731,13 +39533,13 @@
         <v>79</v>
       </c>
       <c r="Y326" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z326" t="s" s="2">
-        <v>1068</v>
+        <v>79</v>
       </c>
       <c r="AA326" t="s" s="2">
-        <v>1069</v>
+        <v>79</v>
       </c>
       <c r="AB326" t="s" s="2">
         <v>79</v>
@@ -39755,13 +39557,13 @@
         <v>79</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>1070</v>
+        <v>1101</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI326" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ326" t="s" s="2">
         <v>79</v>
@@ -39775,10 +39577,10 @@
         <v>1018</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1072</v>
+        <v>1102</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39786,7 +39588,7 @@
       </c>
       <c r="F327" s="2"/>
       <c r="G327" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H327" t="s" s="2">
         <v>85</v>
@@ -39801,19 +39603,17 @@
         <v>228</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>116</v>
+        <v>472</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1074</v>
-      </c>
-      <c r="O327" t="s" s="2">
-        <v>1075</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
-        <v>1076</v>
+        <v>1105</v>
       </c>
       <c r="Q327" t="s" s="2">
         <v>79</v>
@@ -39823,10 +39623,10 @@
         <v>79</v>
       </c>
       <c r="T327" t="s" s="2">
-        <v>1077</v>
+        <v>79</v>
       </c>
       <c r="U327" t="s" s="2">
-        <v>1078</v>
+        <v>79</v>
       </c>
       <c r="V327" t="s" s="2">
         <v>79</v>
@@ -39862,7 +39662,7 @@
         <v>79</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1079</v>
+        <v>1106</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>80</v>
@@ -39882,10 +39682,10 @@
         <v>1018</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1081</v>
+        <v>1107</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39908,18 +39708,20 @@
         <v>228</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1082</v>
+        <v>1108</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1083</v>
+        <v>1109</v>
       </c>
       <c r="O328" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="P328" s="2"/>
+        <v>1110</v>
+      </c>
+      <c r="P328" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="Q328" t="s" s="2">
         <v>79</v>
       </c>
@@ -39931,7 +39733,7 @@
         <v>79</v>
       </c>
       <c r="U328" t="s" s="2">
-        <v>1085</v>
+        <v>79</v>
       </c>
       <c r="V328" t="s" s="2">
         <v>79</v>
@@ -39955,28 +39757,28 @@
         <v>79</v>
       </c>
       <c r="AC328" t="s" s="2">
-        <v>79</v>
+        <v>1044</v>
       </c>
       <c r="AD328" t="s" s="2">
-        <v>79</v>
+        <v>1111</v>
       </c>
       <c r="AE328" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1086</v>
+        <v>1107</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI328" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ328" t="s" s="2">
-        <v>1087</v>
+        <v>79</v>
       </c>
       <c r="AK328" t="s" s="2">
         <v>129</v>
@@ -39987,12 +39789,14 @@
         <v>1018</v>
       </c>
       <c r="B329" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="C329" t="s" s="2">
         <v>1107</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="D329" s="2"/>
+      <c r="D329" t="s" s="2">
+        <v>1113</v>
+      </c>
       <c r="E329" t="s" s="2">
         <v>79</v>
       </c>
@@ -40013,16 +39817,20 @@
         <v>228</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>472</v>
+        <v>292</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="O329" s="2"/>
-      <c r="P329" s="2"/>
+        <v>1109</v>
+      </c>
+      <c r="O329" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="P329" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="Q329" t="s" s="2">
         <v>79</v>
       </c>
@@ -40070,13 +39878,13 @@
         <v>79</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI329" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ329" t="s" s="2">
         <v>79</v>
@@ -40090,10 +39898,10 @@
         <v>1018</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1094</v>
+        <v>1115</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -40113,20 +39921,18 @@
         <v>79</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>356</v>
+        <v>86</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1095</v>
+        <v>87</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="O330" t="s" s="2">
-        <v>1097</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O330" s="2"/>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
         <v>79</v>
@@ -40175,7 +39981,7 @@
         <v>79</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1098</v>
+        <v>89</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>80</v>
@@ -40184,10 +39990,10 @@
         <v>85</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="331">
@@ -40195,23 +40001,21 @@
         <v>1018</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="D331" t="s" s="2">
-        <v>1110</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H331" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I331" t="s" s="2">
         <v>79</v>
@@ -40220,21 +40024,21 @@
         <v>79</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>276</v>
+        <v>93</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1041</v>
+        <v>94</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="O331" s="2"/>
-      <c r="P331" t="s" s="2">
-        <v>1043</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
         <v>79</v>
       </c>
@@ -40270,19 +40074,19 @@
         <v>79</v>
       </c>
       <c r="AC331" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AD331" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AE331" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1039</v>
+        <v>100</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>80</v>
@@ -40294,7 +40098,7 @@
         <v>79</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="332">
@@ -40302,20 +40106,18 @@
         <v>1018</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="D332" t="s" s="2">
-        <v>1112</v>
-      </c>
+        <v>1119</v>
+      </c>
+      <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H332" t="s" s="2">
         <v>85</v>
@@ -40330,18 +40132,16 @@
         <v>228</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1041</v>
+        <v>1120</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1042</v>
+        <v>1121</v>
       </c>
       <c r="O332" s="2"/>
-      <c r="P332" t="s" s="2">
-        <v>1043</v>
-      </c>
+      <c r="P332" s="2"/>
       <c r="Q332" t="s" s="2">
         <v>79</v>
       </c>
@@ -40350,7 +40150,7 @@
         <v>79</v>
       </c>
       <c r="T332" t="s" s="2">
-        <v>79</v>
+        <v>1122</v>
       </c>
       <c r="U332" t="s" s="2">
         <v>79</v>
@@ -40365,13 +40165,13 @@
         <v>79</v>
       </c>
       <c r="Y332" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z332" t="s" s="2">
-        <v>79</v>
+        <v>1123</v>
       </c>
       <c r="AA332" t="s" s="2">
-        <v>79</v>
+        <v>1124</v>
       </c>
       <c r="AB332" t="s" s="2">
         <v>79</v>
@@ -40389,16 +40189,16 @@
         <v>79</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1039</v>
+        <v>1125</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI332" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ332" t="s" s="2">
-        <v>79</v>
+        <v>1126</v>
       </c>
       <c r="AK332" t="s" s="2">
         <v>129</v>
@@ -40409,10 +40209,10 @@
         <v>1018</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1113</v>
+        <v>1127</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1049</v>
+        <v>1128</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40432,19 +40232,23 @@
         <v>79</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>87</v>
+        <v>1129</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O333" s="2"/>
-      <c r="P333" s="2"/>
+        <v>1130</v>
+      </c>
+      <c r="O333" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="P333" t="s" s="2">
+        <v>1132</v>
+      </c>
       <c r="Q333" t="s" s="2">
         <v>79</v>
       </c>
@@ -40492,7 +40296,7 @@
         <v>79</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>89</v>
+        <v>1133</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>80</v>
@@ -40501,10 +40305,10 @@
         <v>85</v>
       </c>
       <c r="AJ333" t="s" s="2">
-        <v>90</v>
+        <v>1126</v>
       </c>
       <c r="AK333" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="334">
@@ -40512,44 +40316,46 @@
         <v>1018</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1114</v>
+        <v>1134</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1051</v>
+        <v>1135</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H334" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I334" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>94</v>
+        <v>1136</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>95</v>
+        <v>1137</v>
       </c>
       <c r="O334" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P334" s="2"/>
+        <v>1138</v>
+      </c>
+      <c r="P334" t="s" s="2">
+        <v>1139</v>
+      </c>
       <c r="Q334" t="s" s="2">
         <v>79</v>
       </c>
@@ -40573,43 +40379,43 @@
         <v>79</v>
       </c>
       <c r="Y334" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z334" t="s" s="2">
-        <v>79</v>
+        <v>1140</v>
       </c>
       <c r="AA334" t="s" s="2">
-        <v>79</v>
+        <v>1141</v>
       </c>
       <c r="AB334" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AC334" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD334" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AE334" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF334" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>100</v>
+        <v>1142</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI334" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ334" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK334" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="335">
@@ -40617,10 +40423,10 @@
         <v>1018</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1115</v>
+        <v>1143</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1053</v>
+        <v>1144</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40637,26 +40443,24 @@
         <v>79</v>
       </c>
       <c r="J335" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K335" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>244</v>
+        <v>1145</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>1054</v>
+        <v>1146</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>1055</v>
+        <v>1147</v>
       </c>
       <c r="O335" t="s" s="2">
-        <v>1056</v>
-      </c>
-      <c r="P335" t="s" s="2">
-        <v>1057</v>
-      </c>
+        <v>1148</v>
+      </c>
+      <c r="P335" s="2"/>
       <c r="Q335" t="s" s="2">
         <v>79</v>
       </c>
@@ -40680,13 +40484,13 @@
         <v>79</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>1059</v>
+        <v>79</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>1060</v>
+        <v>79</v>
       </c>
       <c r="AB335" t="s" s="2">
         <v>79</v>
@@ -40704,7 +40508,7 @@
         <v>79</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>1061</v>
+        <v>1149</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>80</v>
@@ -40724,10 +40528,10 @@
         <v>1018</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1116</v>
+        <v>1150</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1063</v>
+        <v>1151</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40750,20 +40554,16 @@
         <v>228</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>132</v>
+        <v>472</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1064</v>
+        <v>1152</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="O336" t="s" s="2">
-        <v>1066</v>
-      </c>
-      <c r="P336" t="s" s="2">
-        <v>1067</v>
-      </c>
+        <v>1153</v>
+      </c>
+      <c r="O336" s="2"/>
+      <c r="P336" s="2"/>
       <c r="Q336" t="s" s="2">
         <v>79</v>
       </c>
@@ -40787,13 +40587,13 @@
         <v>79</v>
       </c>
       <c r="Y336" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z336" t="s" s="2">
-        <v>1068</v>
+        <v>79</v>
       </c>
       <c r="AA336" t="s" s="2">
-        <v>1069</v>
+        <v>79</v>
       </c>
       <c r="AB336" t="s" s="2">
         <v>79</v>
@@ -40811,7 +40611,7 @@
         <v>79</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1070</v>
+        <v>1154</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>80</v>
@@ -40831,18 +40631,20 @@
         <v>1018</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1117</v>
+        <v>1155</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1072</v>
-      </c>
-      <c r="D337" s="2"/>
+        <v>1107</v>
+      </c>
+      <c r="D337" t="s" s="2">
+        <v>1156</v>
+      </c>
       <c r="E337" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H337" t="s" s="2">
         <v>85</v>
@@ -40857,19 +40659,19 @@
         <v>228</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1073</v>
+        <v>1108</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1074</v>
+        <v>1109</v>
       </c>
       <c r="O337" t="s" s="2">
-        <v>1075</v>
+        <v>1110</v>
       </c>
       <c r="P337" t="s" s="2">
-        <v>1076</v>
+        <v>296</v>
       </c>
       <c r="Q337" t="s" s="2">
         <v>79</v>
@@ -40879,10 +40681,10 @@
         <v>79</v>
       </c>
       <c r="T337" t="s" s="2">
-        <v>1118</v>
+        <v>79</v>
       </c>
       <c r="U337" t="s" s="2">
-        <v>1078</v>
+        <v>79</v>
       </c>
       <c r="V337" t="s" s="2">
         <v>79</v>
@@ -40918,13 +40720,13 @@
         <v>79</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI337" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ337" t="s" s="2">
         <v>79</v>
@@ -40938,10 +40740,10 @@
         <v>1018</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1119</v>
+        <v>1157</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1081</v>
+        <v>1115</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40961,20 +40763,18 @@
         <v>79</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1082</v>
+        <v>87</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1083</v>
-      </c>
-      <c r="O338" t="s" s="2">
-        <v>1084</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O338" s="2"/>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
         <v>79</v>
@@ -40987,7 +40787,7 @@
         <v>79</v>
       </c>
       <c r="U338" t="s" s="2">
-        <v>1085</v>
+        <v>79</v>
       </c>
       <c r="V338" t="s" s="2">
         <v>79</v>
@@ -41023,7 +40823,7 @@
         <v>79</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1086</v>
+        <v>89</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>80</v>
@@ -41032,10 +40832,10 @@
         <v>85</v>
       </c>
       <c r="AJ338" t="s" s="2">
-        <v>1087</v>
+        <v>90</v>
       </c>
       <c r="AK338" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="339">
@@ -41043,21 +40843,21 @@
         <v>1018</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1120</v>
+        <v>1158</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1089</v>
+        <v>1117</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H339" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I339" t="s" s="2">
         <v>79</v>
@@ -41066,18 +40866,20 @@
         <v>79</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>472</v>
+        <v>93</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1090</v>
+        <v>94</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="O339" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O339" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
         <v>79</v>
@@ -41114,31 +40916,31 @@
         <v>79</v>
       </c>
       <c r="AC339" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AD339" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AE339" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1092</v>
+        <v>100</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI339" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ339" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="340">
@@ -41146,10 +40948,10 @@
         <v>1018</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1121</v>
+        <v>1159</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1094</v>
+        <v>1119</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -41157,7 +40959,7 @@
       </c>
       <c r="F340" s="2"/>
       <c r="G340" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H340" t="s" s="2">
         <v>85</v>
@@ -41172,17 +40974,15 @@
         <v>228</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1095</v>
+        <v>1120</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="O340" t="s" s="2">
-        <v>1097</v>
-      </c>
+        <v>1121</v>
+      </c>
+      <c r="O340" s="2"/>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
         <v>79</v>
@@ -41192,7 +40992,7 @@
         <v>79</v>
       </c>
       <c r="T340" t="s" s="2">
-        <v>79</v>
+        <v>1160</v>
       </c>
       <c r="U340" t="s" s="2">
         <v>79</v>
@@ -41207,13 +41007,13 @@
         <v>79</v>
       </c>
       <c r="Y340" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z340" t="s" s="2">
-        <v>79</v>
+        <v>1123</v>
       </c>
       <c r="AA340" t="s" s="2">
-        <v>79</v>
+        <v>1124</v>
       </c>
       <c r="AB340" t="s" s="2">
         <v>79</v>
@@ -41231,7 +41031,7 @@
         <v>79</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1098</v>
+        <v>1125</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>80</v>
@@ -41240,7 +41040,7 @@
         <v>85</v>
       </c>
       <c r="AJ340" t="s" s="2">
-        <v>79</v>
+        <v>1126</v>
       </c>
       <c r="AK340" t="s" s="2">
         <v>129</v>
@@ -41251,10 +41051,10 @@
         <v>1018</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1122</v>
+        <v>1161</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -41271,85 +41071,83 @@
         <v>79</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K341" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="P341" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="Q341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R341" s="2"/>
+      <c r="S341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG341" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="AH341" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI341" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ341" t="s" s="2">
         <v>1126</v>
-      </c>
-      <c r="Q341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R341" t="s" s="2">
-        <v>1127</v>
-      </c>
-      <c r="S341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF341" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG341" t="s" s="2">
-        <v>1122</v>
-      </c>
-      <c r="AH341" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI341" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ341" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AK341" t="s" s="2">
         <v>129</v>
@@ -41360,10 +41158,10 @@
         <v>1018</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1128</v>
+        <v>1162</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -41371,7 +41169,7 @@
       </c>
       <c r="F342" s="2"/>
       <c r="G342" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H342" t="s" s="2">
         <v>85</v>
@@ -41380,25 +41178,25 @@
         <v>79</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K342" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="O342" t="s" s="2">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="P342" t="s" s="2">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="Q342" t="s" s="2">
         <v>79</v>
@@ -41423,13 +41221,13 @@
         <v>79</v>
       </c>
       <c r="Y342" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z342" t="s" s="2">
-        <v>79</v>
+        <v>1140</v>
       </c>
       <c r="AA342" t="s" s="2">
-        <v>79</v>
+        <v>1141</v>
       </c>
       <c r="AB342" t="s" s="2">
         <v>79</v>
@@ -41447,13 +41245,13 @@
         <v>79</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1128</v>
+        <v>1142</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>79</v>
@@ -41467,10 +41265,10 @@
         <v>1018</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1133</v>
+        <v>1163</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1133</v>
+        <v>1144</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41490,18 +41288,20 @@
         <v>79</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>86</v>
+        <v>1145</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>87</v>
+        <v>1146</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O343" s="2"/>
+        <v>1147</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>1148</v>
+      </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
         <v>79</v>
@@ -41550,7 +41350,7 @@
         <v>79</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>89</v>
+        <v>1149</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>80</v>
@@ -41559,10 +41359,10 @@
         <v>85</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="344">
@@ -41570,21 +41370,21 @@
         <v>1018</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1134</v>
+        <v>1164</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1134</v>
+        <v>1151</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H344" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I344" t="s" s="2">
         <v>79</v>
@@ -41593,20 +41393,18 @@
         <v>79</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>93</v>
+        <v>472</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>94</v>
+        <v>1152</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O344" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>1153</v>
+      </c>
+      <c r="O344" s="2"/>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
         <v>79</v>
@@ -41643,31 +41441,31 @@
         <v>79</v>
       </c>
       <c r="AC344" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD344" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AE344" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>100</v>
+        <v>1154</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI344" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ344" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK344" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="345">
@@ -41675,10 +41473,10 @@
         <v>1018</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1135</v>
+        <v>1165</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1135</v>
+        <v>1165</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41695,7 +41493,7 @@
         <v>79</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K345" t="s" s="2">
         <v>228</v>
@@ -41704,16 +41502,16 @@
         <v>244</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1136</v>
+        <v>298</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>1138</v>
+        <v>1167</v>
       </c>
       <c r="P345" t="s" s="2">
-        <v>1139</v>
+        <v>1168</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>79</v>
@@ -41723,7 +41521,7 @@
         <v>79</v>
       </c>
       <c r="T345" t="s" s="2">
-        <v>1058</v>
+        <v>79</v>
       </c>
       <c r="U345" t="s" s="2">
         <v>79</v>
@@ -41741,10 +41539,10 @@
         <v>133</v>
       </c>
       <c r="Z345" t="s" s="2">
-        <v>1140</v>
+        <v>302</v>
       </c>
       <c r="AA345" t="s" s="2">
-        <v>1141</v>
+        <v>303</v>
       </c>
       <c r="AB345" t="s" s="2">
         <v>79</v>
@@ -41762,7 +41560,7 @@
         <v>79</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1142</v>
+        <v>1165</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>80</v>
@@ -41782,10 +41580,10 @@
         <v>1018</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1143</v>
+        <v>1169</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1143</v>
+        <v>1169</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41808,19 +41606,19 @@
         <v>228</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1144</v>
+        <v>1170</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1145</v>
+        <v>1171</v>
       </c>
       <c r="O346" t="s" s="2">
-        <v>1146</v>
+        <v>1172</v>
       </c>
       <c r="P346" t="s" s="2">
-        <v>1147</v>
+        <v>1173</v>
       </c>
       <c r="Q346" t="s" s="2">
         <v>79</v>
@@ -41869,7 +41667,7 @@
         <v>79</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1148</v>
+        <v>1169</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>80</v>
@@ -41889,18 +41687,18 @@
         <v>1018</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1149</v>
+        <v>1174</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1149</v>
+        <v>1174</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
-        <v>1150</v>
+        <v>79</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H347" t="s" s="2">
         <v>85</v>
@@ -41909,24 +41707,26 @@
         <v>79</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K347" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1151</v>
+        <v>312</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1152</v>
+        <v>313</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>1153</v>
-      </c>
-      <c r="P347" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="P347" t="s" s="2">
+        <v>1175</v>
+      </c>
       <c r="Q347" t="s" s="2">
         <v>79</v>
       </c>
@@ -41974,7 +41774,7 @@
         <v>79</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1154</v>
+        <v>1174</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>80</v>
@@ -41994,21 +41794,21 @@
         <v>1018</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1155</v>
+        <v>1176</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1155</v>
+        <v>1176</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
-        <v>1156</v>
+        <v>79</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H348" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I348" t="s" s="2">
         <v>79</v>
@@ -42020,18 +41820,20 @@
         <v>228</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>143</v>
+        <v>316</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1157</v>
+        <v>1177</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>1158</v>
+        <v>1178</v>
       </c>
       <c r="O348" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="P348" s="2"/>
+        <v>1179</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>1180</v>
+      </c>
       <c r="Q348" t="s" s="2">
         <v>79</v>
       </c>
@@ -42079,7 +41881,7 @@
         <v>79</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>80</v>
@@ -42099,10 +41901,10 @@
         <v>1018</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1161</v>
+        <v>1181</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1161</v>
+        <v>1181</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -42113,7 +41915,7 @@
         <v>80</v>
       </c>
       <c r="H349" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I349" t="s" s="2">
         <v>79</v>
@@ -42122,16 +41924,16 @@
         <v>79</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1162</v>
+        <v>87</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1163</v>
+        <v>88</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -42182,19 +41984,19 @@
         <v>79</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1164</v>
+        <v>89</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI349" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ349" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AK349" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="350">
@@ -42202,14 +42004,14 @@
         <v>1018</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1165</v>
+        <v>1182</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1165</v>
+        <v>1182</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" t="s" s="2">
@@ -42225,18 +42027,20 @@
         <v>79</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1166</v>
+        <v>94</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1167</v>
-      </c>
-      <c r="O350" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="P350" s="2"/>
       <c r="Q350" t="s" s="2">
         <v>79</v>
@@ -42273,19 +42077,19 @@
         <v>79</v>
       </c>
       <c r="AC350" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AD350" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AE350" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF350" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>1168</v>
+        <v>100</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>80</v>
@@ -42297,7 +42101,7 @@
         <v>79</v>
       </c>
       <c r="AK350" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="351">
@@ -42305,12 +42109,14 @@
         <v>1018</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1169</v>
+        <v>1183</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="D351" s="2"/>
+        <v>1182</v>
+      </c>
+      <c r="D351" t="s" s="2">
+        <v>1184</v>
+      </c>
       <c r="E351" t="s" s="2">
         <v>79</v>
       </c>
@@ -42328,21 +42134,19 @@
         <v>79</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>472</v>
+        <v>1185</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1170</v>
+        <v>11</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1171</v>
+        <v>25</v>
       </c>
       <c r="O351" s="2"/>
-      <c r="P351" t="s" s="2">
-        <v>1172</v>
-      </c>
+      <c r="P351" s="2"/>
       <c r="Q351" t="s" s="2">
         <v>79</v>
       </c>
@@ -42390,19 +42194,19 @@
         <v>79</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1173</v>
+        <v>100</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ351" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK351" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="352">
@@ -42410,10 +42214,10 @@
         <v>1018</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1174</v>
+        <v>1186</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1174</v>
+        <v>1186</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -42430,25 +42234,25 @@
         <v>79</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K352" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1175</v>
+        <v>1187</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="P352" t="s" s="2">
-        <v>296</v>
+        <v>1190</v>
       </c>
       <c r="Q352" t="s" s="2">
         <v>79</v>
@@ -42461,7 +42265,7 @@
         <v>79</v>
       </c>
       <c r="U352" t="s" s="2">
-        <v>79</v>
+        <v>1191</v>
       </c>
       <c r="V352" t="s" s="2">
         <v>79</v>
@@ -42473,37 +42277,37 @@
         <v>79</v>
       </c>
       <c r="Y352" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z352" t="s" s="2">
-        <v>79</v>
+        <v>1192</v>
       </c>
       <c r="AA352" t="s" s="2">
-        <v>79</v>
+        <v>1193</v>
       </c>
       <c r="AB352" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AC352" t="s" s="2">
-        <v>1044</v>
+        <v>79</v>
       </c>
       <c r="AD352" t="s" s="2">
-        <v>1178</v>
+        <v>79</v>
       </c>
       <c r="AE352" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF352" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1174</v>
+        <v>1194</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>79</v>
@@ -42517,14 +42321,12 @@
         <v>1018</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1174</v>
-      </c>
-      <c r="D353" t="s" s="2">
-        <v>1180</v>
-      </c>
+        <v>1195</v>
+      </c>
+      <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
         <v>79</v>
       </c>
@@ -42545,20 +42347,18 @@
         <v>228</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1175</v>
+        <v>1196</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1176</v>
+        <v>1197</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>1177</v>
-      </c>
-      <c r="P353" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>1198</v>
+      </c>
+      <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
         <v>79</v>
       </c>
@@ -42570,7 +42370,7 @@
         <v>79</v>
       </c>
       <c r="U353" t="s" s="2">
-        <v>79</v>
+        <v>1199</v>
       </c>
       <c r="V353" t="s" s="2">
         <v>79</v>
@@ -42582,13 +42382,13 @@
         <v>79</v>
       </c>
       <c r="Y353" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z353" t="s" s="2">
-        <v>79</v>
+        <v>1200</v>
       </c>
       <c r="AA353" t="s" s="2">
-        <v>79</v>
+        <v>1201</v>
       </c>
       <c r="AB353" t="s" s="2">
         <v>79</v>
@@ -42606,13 +42406,13 @@
         <v>79</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1174</v>
+        <v>1202</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>79</v>
@@ -42626,10 +42426,10 @@
         <v>1018</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1181</v>
+        <v>1203</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1182</v>
+        <v>1203</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -42649,19 +42449,23 @@
         <v>79</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>87</v>
+        <v>1204</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O354" s="2"/>
-      <c r="P354" s="2"/>
+        <v>1205</v>
+      </c>
+      <c r="O354" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="P354" t="s" s="2">
+        <v>1080</v>
+      </c>
       <c r="Q354" t="s" s="2">
         <v>79</v>
       </c>
@@ -42673,7 +42477,7 @@
         <v>79</v>
       </c>
       <c r="U354" t="s" s="2">
-        <v>79</v>
+        <v>1207</v>
       </c>
       <c r="V354" t="s" s="2">
         <v>79</v>
@@ -42709,7 +42513,7 @@
         <v>79</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>89</v>
+        <v>1208</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>80</v>
@@ -42718,10 +42522,10 @@
         <v>85</v>
       </c>
       <c r="AJ354" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AK354" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="355">
@@ -42729,14 +42533,14 @@
         <v>1018</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1183</v>
+        <v>1209</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1184</v>
+        <v>1209</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" t="s" s="2">
@@ -42752,20 +42556,18 @@
         <v>79</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>94</v>
+        <v>1210</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O355" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>1211</v>
+      </c>
+      <c r="O355" s="2"/>
       <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
         <v>79</v>
@@ -42778,7 +42580,7 @@
         <v>79</v>
       </c>
       <c r="U355" t="s" s="2">
-        <v>79</v>
+        <v>1212</v>
       </c>
       <c r="V355" t="s" s="2">
         <v>79</v>
@@ -42802,19 +42604,19 @@
         <v>79</v>
       </c>
       <c r="AC355" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD355" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AE355" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF355" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>100</v>
+        <v>1213</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>80</v>
@@ -42826,7 +42628,7 @@
         <v>79</v>
       </c>
       <c r="AK355" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="356">
@@ -42834,18 +42636,18 @@
         <v>1018</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1185</v>
+        <v>1214</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1186</v>
+        <v>1214</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>79</v>
+        <v>1215</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H356" t="s" s="2">
         <v>85</v>
@@ -42860,13 +42662,13 @@
         <v>228</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1187</v>
+        <v>1216</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1188</v>
+        <v>1217</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42878,10 +42680,10 @@
         <v>79</v>
       </c>
       <c r="T356" t="s" s="2">
-        <v>1189</v>
+        <v>79</v>
       </c>
       <c r="U356" t="s" s="2">
-        <v>79</v>
+        <v>1218</v>
       </c>
       <c r="V356" t="s" s="2">
         <v>79</v>
@@ -42893,13 +42695,13 @@
         <v>79</v>
       </c>
       <c r="Y356" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z356" t="s" s="2">
-        <v>1190</v>
+        <v>79</v>
       </c>
       <c r="AA356" t="s" s="2">
-        <v>1191</v>
+        <v>79</v>
       </c>
       <c r="AB356" t="s" s="2">
         <v>79</v>
@@ -42917,7 +42719,7 @@
         <v>79</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1192</v>
+        <v>1219</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>80</v>
@@ -42926,7 +42728,7 @@
         <v>85</v>
       </c>
       <c r="AJ356" t="s" s="2">
-        <v>1193</v>
+        <v>79</v>
       </c>
       <c r="AK356" t="s" s="2">
         <v>129</v>
@@ -42937,14 +42739,14 @@
         <v>1018</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1194</v>
+        <v>1220</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1195</v>
+        <v>1220</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>79</v>
+        <v>1221</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
@@ -42966,17 +42768,15 @@
         <v>143</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1196</v>
+        <v>1222</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1197</v>
+        <v>1223</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>1198</v>
-      </c>
-      <c r="P357" t="s" s="2">
-        <v>1199</v>
-      </c>
+        <v>1224</v>
+      </c>
+      <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
         <v>79</v>
       </c>
@@ -42988,7 +42788,7 @@
         <v>79</v>
       </c>
       <c r="U357" t="s" s="2">
-        <v>79</v>
+        <v>1225</v>
       </c>
       <c r="V357" t="s" s="2">
         <v>79</v>
@@ -43024,7 +42824,7 @@
         <v>79</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1200</v>
+        <v>1226</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>80</v>
@@ -43033,7 +42833,7 @@
         <v>85</v>
       </c>
       <c r="AJ357" t="s" s="2">
-        <v>1193</v>
+        <v>79</v>
       </c>
       <c r="AK357" t="s" s="2">
         <v>129</v>
@@ -43044,14 +42844,14 @@
         <v>1018</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1201</v>
+        <v>1227</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1202</v>
+        <v>1227</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
-        <v>79</v>
+        <v>1228</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" t="s" s="2">
@@ -43064,26 +42864,22 @@
         <v>79</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K358" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1203</v>
+        <v>1229</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1204</v>
-      </c>
-      <c r="O358" t="s" s="2">
-        <v>1205</v>
-      </c>
-      <c r="P358" t="s" s="2">
-        <v>1206</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="O358" s="2"/>
+      <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
         <v>79</v>
       </c>
@@ -43107,13 +42903,13 @@
         <v>79</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z358" t="s" s="2">
-        <v>1207</v>
+        <v>79</v>
       </c>
       <c r="AA358" t="s" s="2">
-        <v>1208</v>
+        <v>79</v>
       </c>
       <c r="AB358" t="s" s="2">
         <v>79</v>
@@ -43131,7 +42927,7 @@
         <v>79</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1209</v>
+        <v>1231</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>80</v>
@@ -43151,14 +42947,14 @@
         <v>1018</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1210</v>
+        <v>1232</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1211</v>
+        <v>1232</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
-        <v>79</v>
+        <v>1233</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" t="s" s="2">
@@ -43177,17 +42973,15 @@
         <v>228</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>1212</v>
+        <v>143</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1213</v>
+        <v>1234</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1214</v>
-      </c>
-      <c r="O359" t="s" s="2">
-        <v>1215</v>
-      </c>
+        <v>1235</v>
+      </c>
+      <c r="O359" s="2"/>
       <c r="P359" s="2"/>
       <c r="Q359" t="s" s="2">
         <v>79</v>
@@ -43200,7 +42994,7 @@
         <v>79</v>
       </c>
       <c r="U359" t="s" s="2">
-        <v>79</v>
+        <v>1236</v>
       </c>
       <c r="V359" t="s" s="2">
         <v>79</v>
@@ -43236,7 +43030,7 @@
         <v>79</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1216</v>
+        <v>1237</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>80</v>
@@ -43256,10 +43050,10 @@
         <v>1018</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1217</v>
+        <v>1238</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1218</v>
+        <v>1238</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43282,15 +43076,17 @@
         <v>228</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>472</v>
+        <v>143</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1219</v>
+        <v>1239</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1220</v>
-      </c>
-      <c r="O360" s="2"/>
+        <v>1240</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>1241</v>
+      </c>
       <c r="P360" s="2"/>
       <c r="Q360" t="s" s="2">
         <v>79</v>
@@ -43339,7 +43135,7 @@
         <v>79</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1221</v>
+        <v>1242</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>80</v>
@@ -43359,14 +43155,12 @@
         <v>1018</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1222</v>
+        <v>1243</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1174</v>
-      </c>
-      <c r="D361" t="s" s="2">
-        <v>1223</v>
-      </c>
+        <v>1243</v>
+      </c>
+      <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
         <v>79</v>
       </c>
@@ -43387,19 +43181,17 @@
         <v>228</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1175</v>
+        <v>1244</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="O361" t="s" s="2">
-        <v>1177</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="O361" s="2"/>
       <c r="P361" t="s" s="2">
-        <v>296</v>
+        <v>1246</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>79</v>
@@ -43412,7 +43204,7 @@
         <v>79</v>
       </c>
       <c r="U361" t="s" s="2">
-        <v>79</v>
+        <v>1247</v>
       </c>
       <c r="V361" t="s" s="2">
         <v>79</v>
@@ -43448,13 +43240,13 @@
         <v>79</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1174</v>
+        <v>1248</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>79</v>
@@ -43468,10 +43260,10 @@
         <v>1018</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1224</v>
+        <v>1249</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1182</v>
+        <v>1249</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -43494,16 +43286,18 @@
         <v>79</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>87</v>
+        <v>1250</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>88</v>
+        <v>1251</v>
       </c>
       <c r="O362" s="2"/>
-      <c r="P362" s="2"/>
+      <c r="P362" t="s" s="2">
+        <v>1252</v>
+      </c>
       <c r="Q362" t="s" s="2">
         <v>79</v>
       </c>
@@ -43527,13 +43321,13 @@
         <v>79</v>
       </c>
       <c r="Y362" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="Z362" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AA362" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AB362" t="s" s="2">
         <v>79</v>
@@ -43551,7 +43345,7 @@
         <v>79</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>89</v>
+        <v>1249</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>80</v>
@@ -43560,10 +43354,10 @@
         <v>85</v>
       </c>
       <c r="AJ362" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AK362" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="363">
@@ -43571,21 +43365,21 @@
         <v>1018</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1225</v>
+        <v>1253</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1184</v>
+        <v>1253</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H363" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I363" t="s" s="2">
         <v>79</v>
@@ -43597,18 +43391,20 @@
         <v>79</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>93</v>
+        <v>1254</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>94</v>
+        <v>1255</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>95</v>
+        <v>1256</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P363" s="2"/>
+        <v>1257</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>1258</v>
+      </c>
       <c r="Q363" t="s" s="2">
         <v>79</v>
       </c>
@@ -43644,31 +43440,31 @@
         <v>79</v>
       </c>
       <c r="AC363" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD363" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AE363" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF363" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>100</v>
+        <v>1253</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI363" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ363" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK363" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="364">
@@ -43676,10 +43472,10 @@
         <v>1018</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1226</v>
+        <v>1259</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1186</v>
+        <v>1259</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -43687,10 +43483,10 @@
       </c>
       <c r="F364" s="2"/>
       <c r="G364" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H364" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I364" t="s" s="2">
         <v>79</v>
@@ -43699,19 +43495,23 @@
         <v>79</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>1187</v>
+        <v>1260</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>1188</v>
-      </c>
-      <c r="O364" s="2"/>
-      <c r="P364" s="2"/>
+        <v>1261</v>
+      </c>
+      <c r="O364" t="s" s="2">
+        <v>1262</v>
+      </c>
+      <c r="P364" t="s" s="2">
+        <v>1263</v>
+      </c>
       <c r="Q364" t="s" s="2">
         <v>79</v>
       </c>
@@ -43720,7 +43520,7 @@
         <v>79</v>
       </c>
       <c r="T364" t="s" s="2">
-        <v>1227</v>
+        <v>79</v>
       </c>
       <c r="U364" t="s" s="2">
         <v>79</v>
@@ -43735,13 +43535,13 @@
         <v>79</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z364" t="s" s="2">
-        <v>1190</v>
+        <v>79</v>
       </c>
       <c r="AA364" t="s" s="2">
-        <v>1191</v>
+        <v>79</v>
       </c>
       <c r="AB364" t="s" s="2">
         <v>79</v>
@@ -43759,16 +43559,16 @@
         <v>79</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>1192</v>
+        <v>1259</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI364" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ364" t="s" s="2">
-        <v>1193</v>
+        <v>79</v>
       </c>
       <c r="AK364" t="s" s="2">
         <v>129</v>
@@ -43779,10 +43579,10 @@
         <v>1018</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1228</v>
+        <v>1264</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1195</v>
+        <v>1264</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43793,7 +43593,7 @@
         <v>80</v>
       </c>
       <c r="H365" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I365" t="s" s="2">
         <v>79</v>
@@ -43802,22 +43602,22 @@
         <v>79</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1196</v>
+        <v>1265</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>1197</v>
+        <v>1266</v>
       </c>
       <c r="O365" t="s" s="2">
-        <v>1198</v>
+        <v>1267</v>
       </c>
       <c r="P365" t="s" s="2">
-        <v>1199</v>
+        <v>1268</v>
       </c>
       <c r="Q365" t="s" s="2">
         <v>79</v>
@@ -43866,19 +43666,19 @@
         <v>79</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1200</v>
+        <v>1264</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI365" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ365" t="s" s="2">
-        <v>1193</v>
+        <v>79</v>
       </c>
       <c r="AK365" t="s" s="2">
-        <v>129</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="366">
@@ -43886,10 +43686,10 @@
         <v>1018</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1229</v>
+        <v>1270</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1202</v>
+        <v>1270</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43906,26 +43706,22 @@
         <v>79</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1203</v>
+        <v>87</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1204</v>
-      </c>
-      <c r="O366" t="s" s="2">
-        <v>1205</v>
-      </c>
-      <c r="P366" t="s" s="2">
-        <v>1206</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O366" s="2"/>
+      <c r="P366" s="2"/>
       <c r="Q366" t="s" s="2">
         <v>79</v>
       </c>
@@ -43949,13 +43745,13 @@
         <v>79</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z366" t="s" s="2">
-        <v>1207</v>
+        <v>79</v>
       </c>
       <c r="AA366" t="s" s="2">
-        <v>1208</v>
+        <v>79</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>79</v>
@@ -43973,7 +43769,7 @@
         <v>79</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1209</v>
+        <v>89</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>80</v>
@@ -43982,10 +43778,10 @@
         <v>85</v>
       </c>
       <c r="AJ366" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AK366" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="367">
@@ -43993,21 +43789,21 @@
         <v>1018</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1230</v>
+        <v>1271</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1211</v>
+        <v>1271</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H367" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I367" t="s" s="2">
         <v>79</v>
@@ -44016,19 +43812,19 @@
         <v>79</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1212</v>
+        <v>93</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1213</v>
+        <v>94</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1214</v>
+        <v>95</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1215</v>
+        <v>96</v>
       </c>
       <c r="P367" s="2"/>
       <c r="Q367" t="s" s="2">
@@ -44078,19 +43874,19 @@
         <v>79</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1216</v>
+        <v>100</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK367" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="368">
@@ -44098,42 +43894,46 @@
         <v>1018</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1231</v>
+        <v>1272</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1218</v>
+        <v>1272</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H368" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I368" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K368" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>472</v>
+        <v>93</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1219</v>
+        <v>342</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1220</v>
-      </c>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="O368" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="P368" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="Q368" t="s" s="2">
         <v>79</v>
       </c>
@@ -44181,19 +43981,19 @@
         <v>79</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1221</v>
+        <v>344</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI368" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ368" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK368" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="369">
@@ -44201,10 +44001,10 @@
         <v>1018</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1232</v>
+        <v>1273</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1232</v>
+        <v>1273</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -44212,10 +44012,10 @@
       </c>
       <c r="F369" s="2"/>
       <c r="G369" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H369" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I369" t="s" s="2">
         <v>79</v>
@@ -44224,22 +44024,20 @@
         <v>79</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>298</v>
+        <v>1274</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>1233</v>
-      </c>
-      <c r="O369" t="s" s="2">
-        <v>1234</v>
-      </c>
+        <v>1275</v>
+      </c>
+      <c r="O369" s="2"/>
       <c r="P369" t="s" s="2">
-        <v>1235</v>
+        <v>1276</v>
       </c>
       <c r="Q369" t="s" s="2">
         <v>79</v>
@@ -44264,13 +44062,13 @@
         <v>79</v>
       </c>
       <c r="Y369" t="s" s="2">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="Z369" t="s" s="2">
-        <v>302</v>
+        <v>1277</v>
       </c>
       <c r="AA369" t="s" s="2">
-        <v>303</v>
+        <v>1278</v>
       </c>
       <c r="AB369" t="s" s="2">
         <v>79</v>
@@ -44288,13 +44086,13 @@
         <v>79</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1232</v>
+        <v>1273</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI369" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ369" t="s" s="2">
         <v>79</v>
@@ -44308,10 +44106,10 @@
         <v>1018</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1236</v>
+        <v>1279</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1236</v>
+        <v>1279</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -44319,7 +44117,7 @@
       </c>
       <c r="F370" s="2"/>
       <c r="G370" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H370" t="s" s="2">
         <v>85</v>
@@ -44331,22 +44129,20 @@
         <v>79</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>1237</v>
+        <v>1280</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>1238</v>
-      </c>
-      <c r="O370" t="s" s="2">
-        <v>1239</v>
-      </c>
+        <v>1281</v>
+      </c>
+      <c r="O370" s="2"/>
       <c r="P370" t="s" s="2">
-        <v>1240</v>
+        <v>1282</v>
       </c>
       <c r="Q370" t="s" s="2">
         <v>79</v>
@@ -44395,7 +44191,7 @@
         <v>79</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1236</v>
+        <v>1279</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>80</v>
@@ -44404,7 +44200,7 @@
         <v>85</v>
       </c>
       <c r="AJ370" t="s" s="2">
-        <v>79</v>
+        <v>1283</v>
       </c>
       <c r="AK370" t="s" s="2">
         <v>129</v>
@@ -44415,10 +44211,10 @@
         <v>1018</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1241</v>
+        <v>1284</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1241</v>
+        <v>1284</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44429,31 +44225,31 @@
         <v>80</v>
       </c>
       <c r="H371" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I371" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="O371" t="s" s="2">
-        <v>314</v>
+        <v>1285</v>
       </c>
       <c r="P371" t="s" s="2">
-        <v>1242</v>
+        <v>296</v>
       </c>
       <c r="Q371" t="s" s="2">
         <v>79</v>
@@ -44502,16 +44298,16 @@
         <v>79</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>1241</v>
+        <v>1284</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ371" t="s" s="2">
-        <v>79</v>
+        <v>1283</v>
       </c>
       <c r="AK371" t="s" s="2">
         <v>129</v>
@@ -44522,10 +44318,10 @@
         <v>1018</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1243</v>
+        <v>1286</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1243</v>
+        <v>1286</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -44545,22 +44341,20 @@
         <v>79</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L372" t="s" s="2">
         <v>316</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1244</v>
+        <v>1287</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1245</v>
-      </c>
-      <c r="O372" t="s" s="2">
-        <v>1246</v>
-      </c>
+        <v>1288</v>
+      </c>
+      <c r="O372" s="2"/>
       <c r="P372" t="s" s="2">
-        <v>1247</v>
+        <v>1289</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>79</v>
@@ -44609,16 +44403,16 @@
         <v>79</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1243</v>
+        <v>1286</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ372" t="s" s="2">
-        <v>79</v>
+        <v>1283</v>
       </c>
       <c r="AK372" t="s" s="2">
         <v>129</v>
@@ -44629,10 +44423,10 @@
         <v>1018</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1248</v>
+        <v>1290</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1248</v>
+        <v>1290</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -44655,16 +44449,18 @@
         <v>79</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>88</v>
+        <v>1291</v>
       </c>
       <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
+      <c r="P373" t="s" s="2">
+        <v>1292</v>
+      </c>
       <c r="Q373" t="s" s="2">
         <v>79</v>
       </c>
@@ -44688,13 +44484,13 @@
         <v>79</v>
       </c>
       <c r="Y373" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z373" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AA373" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AB373" t="s" s="2">
         <v>79</v>
@@ -44712,7 +44508,7 @@
         <v>79</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>89</v>
+        <v>1290</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>80</v>
@@ -44721,10 +44517,10 @@
         <v>85</v>
       </c>
       <c r="AJ373" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AK373" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="374">
@@ -44732,21 +44528,21 @@
         <v>1018</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1249</v>
+        <v>1293</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1249</v>
+        <v>1293</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H374" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I374" t="s" s="2">
         <v>79</v>
@@ -44758,18 +44554,18 @@
         <v>79</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>93</v>
+        <v>356</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>94</v>
+        <v>1294</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O374" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P374" s="2"/>
+        <v>1295</v>
+      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" t="s" s="2">
+        <v>1296</v>
+      </c>
       <c r="Q374" t="s" s="2">
         <v>79</v>
       </c>
@@ -44805,31 +44601,31 @@
         <v>79</v>
       </c>
       <c r="AC374" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD374" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AE374" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF374" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>100</v>
+        <v>1293</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI374" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ374" t="s" s="2">
-        <v>79</v>
+        <v>1283</v>
       </c>
       <c r="AK374" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="375">
@@ -44837,14 +44633,12 @@
         <v>1018</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1250</v>
+        <v>1297</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1249</v>
-      </c>
-      <c r="D375" t="s" s="2">
-        <v>1251</v>
-      </c>
+        <v>1297</v>
+      </c>
+      <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
         <v>79</v>
       </c>
@@ -44865,13 +44659,13 @@
         <v>79</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1252</v>
+        <v>472</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>11</v>
+        <v>1298</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>25</v>
+        <v>1299</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
@@ -44922,19 +44716,19 @@
         <v>79</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>100</v>
+        <v>1297</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI375" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ375" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="376">
@@ -44942,10 +44736,10 @@
         <v>1018</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1253</v>
+        <v>1300</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1253</v>
+        <v>1300</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44956,31 +44750,31 @@
         <v>80</v>
       </c>
       <c r="H376" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I376" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>1254</v>
+        <v>1301</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>1255</v>
+        <v>1302</v>
       </c>
       <c r="O376" t="s" s="2">
-        <v>1256</v>
+        <v>1303</v>
       </c>
       <c r="P376" t="s" s="2">
-        <v>1257</v>
+        <v>1304</v>
       </c>
       <c r="Q376" t="s" s="2">
         <v>79</v>
@@ -44993,7 +44787,7 @@
         <v>79</v>
       </c>
       <c r="U376" t="s" s="2">
-        <v>1258</v>
+        <v>79</v>
       </c>
       <c r="V376" t="s" s="2">
         <v>79</v>
@@ -45005,13 +44799,13 @@
         <v>79</v>
       </c>
       <c r="Y376" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z376" t="s" s="2">
-        <v>1259</v>
+        <v>79</v>
       </c>
       <c r="AA376" t="s" s="2">
-        <v>1260</v>
+        <v>79</v>
       </c>
       <c r="AB376" t="s" s="2">
         <v>79</v>
@@ -45029,13 +44823,13 @@
         <v>79</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>1261</v>
+        <v>1300</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ376" t="s" s="2">
         <v>79</v>
@@ -45049,10 +44843,10 @@
         <v>1018</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1262</v>
+        <v>1305</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1262</v>
+        <v>1305</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -45072,20 +44866,18 @@
         <v>79</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>1263</v>
+        <v>87</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>1264</v>
-      </c>
-      <c r="O377" t="s" s="2">
-        <v>1265</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O377" s="2"/>
       <c r="P377" s="2"/>
       <c r="Q377" t="s" s="2">
         <v>79</v>
@@ -45098,7 +44890,7 @@
         <v>79</v>
       </c>
       <c r="U377" t="s" s="2">
-        <v>1266</v>
+        <v>79</v>
       </c>
       <c r="V377" t="s" s="2">
         <v>79</v>
@@ -45110,13 +44902,13 @@
         <v>79</v>
       </c>
       <c r="Y377" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Z377" t="s" s="2">
-        <v>1267</v>
+        <v>79</v>
       </c>
       <c r="AA377" t="s" s="2">
-        <v>1268</v>
+        <v>79</v>
       </c>
       <c r="AB377" t="s" s="2">
         <v>79</v>
@@ -45134,7 +44926,7 @@
         <v>79</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>1269</v>
+        <v>89</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>80</v>
@@ -45143,10 +44935,10 @@
         <v>85</v>
       </c>
       <c r="AJ377" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AK377" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="378">
@@ -45154,21 +44946,21 @@
         <v>1018</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1270</v>
+        <v>1306</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1270</v>
+        <v>1306</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H378" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I378" t="s" s="2">
         <v>79</v>
@@ -45177,23 +44969,21 @@
         <v>79</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1271</v>
+        <v>94</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>1272</v>
+        <v>95</v>
       </c>
       <c r="O378" t="s" s="2">
-        <v>1273</v>
-      </c>
-      <c r="P378" t="s" s="2">
-        <v>1147</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P378" s="2"/>
       <c r="Q378" t="s" s="2">
         <v>79</v>
       </c>
@@ -45205,7 +44995,7 @@
         <v>79</v>
       </c>
       <c r="U378" t="s" s="2">
-        <v>1274</v>
+        <v>79</v>
       </c>
       <c r="V378" t="s" s="2">
         <v>79</v>
@@ -45241,19 +45031,19 @@
         <v>79</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>1275</v>
+        <v>100</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK378" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="379">
@@ -45261,14 +45051,14 @@
         <v>1018</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1276</v>
+        <v>1307</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1276</v>
+        <v>1307</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" t="s" s="2">
@@ -45281,22 +45071,26 @@
         <v>79</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K379" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1277</v>
+        <v>342</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1278</v>
-      </c>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="Q379" t="s" s="2">
         <v>79</v>
       </c>
@@ -45308,7 +45102,7 @@
         <v>79</v>
       </c>
       <c r="U379" t="s" s="2">
-        <v>1279</v>
+        <v>79</v>
       </c>
       <c r="V379" t="s" s="2">
         <v>79</v>
@@ -45344,7 +45138,7 @@
         <v>79</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1280</v>
+        <v>344</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>80</v>
@@ -45356,7 +45150,7 @@
         <v>79</v>
       </c>
       <c r="AK379" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="380">
@@ -45364,18 +45158,18 @@
         <v>1018</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1281</v>
+        <v>1308</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1281</v>
+        <v>1308</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
-        <v>1282</v>
+        <v>79</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H380" t="s" s="2">
         <v>85</v>
@@ -45387,19 +45181,23 @@
         <v>79</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>1284</v>
-      </c>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O380" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P380" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Q380" t="s" s="2">
         <v>79</v>
       </c>
@@ -45411,7 +45209,7 @@
         <v>79</v>
       </c>
       <c r="U380" t="s" s="2">
-        <v>1285</v>
+        <v>79</v>
       </c>
       <c r="V380" t="s" s="2">
         <v>79</v>
@@ -45423,13 +45221,13 @@
         <v>79</v>
       </c>
       <c r="Y380" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z380" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AA380" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AB380" t="s" s="2">
         <v>79</v>
@@ -45447,10 +45245,10 @@
         <v>79</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>1286</v>
+        <v>1308</v>
       </c>
       <c r="AH380" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI380" t="s" s="2">
         <v>85</v>
@@ -45467,14 +45265,14 @@
         <v>1018</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1287</v>
+        <v>1310</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1287</v>
+        <v>1310</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
-        <v>1288</v>
+        <v>79</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" t="s" s="2">
@@ -45490,21 +45288,23 @@
         <v>79</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>1289</v>
+        <v>351</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>1290</v>
+        <v>1311</v>
       </c>
       <c r="O381" t="s" s="2">
-        <v>1291</v>
-      </c>
-      <c r="P381" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="P381" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="Q381" t="s" s="2">
         <v>79</v>
       </c>
@@ -45516,7 +45316,7 @@
         <v>79</v>
       </c>
       <c r="U381" t="s" s="2">
-        <v>1292</v>
+        <v>79</v>
       </c>
       <c r="V381" t="s" s="2">
         <v>79</v>
@@ -45552,7 +45352,7 @@
         <v>79</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>1293</v>
+        <v>1310</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>80</v>
@@ -45572,21 +45372,21 @@
         <v>1018</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1294</v>
+        <v>1312</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1294</v>
+        <v>1312</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
-        <v>1295</v>
+        <v>1313</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H382" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I382" t="s" s="2">
         <v>79</v>
@@ -45595,18 +45395,20 @@
         <v>79</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>143</v>
+        <v>1314</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1296</v>
+        <v>1315</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1297</v>
-      </c>
-      <c r="O382" s="2"/>
+        <v>1316</v>
+      </c>
+      <c r="O382" t="s" s="2">
+        <v>1317</v>
+      </c>
       <c r="P382" s="2"/>
       <c r="Q382" t="s" s="2">
         <v>79</v>
@@ -45655,13 +45457,13 @@
         <v>79</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>79</v>
@@ -45675,14 +45477,14 @@
         <v>1018</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1299</v>
+        <v>1318</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1299</v>
+        <v>1318</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>1300</v>
+        <v>79</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" t="s" s="2">
@@ -45701,16 +45503,20 @@
         <v>228</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>143</v>
+        <v>356</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1301</v>
+        <v>1319</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1302</v>
-      </c>
-      <c r="O383" s="2"/>
-      <c r="P383" s="2"/>
+        <v>1320</v>
+      </c>
+      <c r="O383" t="s" s="2">
+        <v>1321</v>
+      </c>
+      <c r="P383" t="s" s="2">
+        <v>1322</v>
+      </c>
       <c r="Q383" t="s" s="2">
         <v>79</v>
       </c>
@@ -45722,7 +45528,7 @@
         <v>79</v>
       </c>
       <c r="U383" t="s" s="2">
-        <v>1303</v>
+        <v>79</v>
       </c>
       <c r="V383" t="s" s="2">
         <v>79</v>
@@ -45758,7 +45564,7 @@
         <v>79</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>80</v>
@@ -45778,10 +45584,10 @@
         <v>1018</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1305</v>
+        <v>1323</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1305</v>
+        <v>1323</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -45792,30 +45598,32 @@
         <v>80</v>
       </c>
       <c r="H384" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I384" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K384" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>1306</v>
+        <v>1324</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>1307</v>
+        <v>1325</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>1308</v>
-      </c>
-      <c r="P384" s="2"/>
+        <v>1326</v>
+      </c>
+      <c r="P384" t="s" s="2">
+        <v>1327</v>
+      </c>
       <c r="Q384" t="s" s="2">
         <v>79</v>
       </c>
@@ -45863,13 +45671,13 @@
         <v>79</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI384" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ384" t="s" s="2">
         <v>79</v>
@@ -45883,10 +45691,10 @@
         <v>1018</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1310</v>
+        <v>1328</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1310</v>
+        <v>1328</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -45906,21 +45714,19 @@
         <v>79</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>472</v>
+        <v>143</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1311</v>
+        <v>87</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1312</v>
+        <v>88</v>
       </c>
       <c r="O385" s="2"/>
-      <c r="P385" t="s" s="2">
-        <v>1313</v>
-      </c>
+      <c r="P385" s="2"/>
       <c r="Q385" t="s" s="2">
         <v>79</v>
       </c>
@@ -45932,7 +45738,7 @@
         <v>79</v>
       </c>
       <c r="U385" t="s" s="2">
-        <v>1314</v>
+        <v>79</v>
       </c>
       <c r="V385" t="s" s="2">
         <v>79</v>
@@ -45968,7 +45774,7 @@
         <v>79</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1315</v>
+        <v>89</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>80</v>
@@ -45977,10 +45783,10 @@
         <v>85</v>
       </c>
       <c r="AJ385" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AK385" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="386">
@@ -45988,21 +45794,21 @@
         <v>1018</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1316</v>
+        <v>1329</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1316</v>
+        <v>1329</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F386" s="2"/>
       <c r="G386" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H386" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I386" t="s" s="2">
         <v>79</v>
@@ -46014,18 +45820,18 @@
         <v>79</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1317</v>
+        <v>94</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1318</v>
-      </c>
-      <c r="O386" s="2"/>
-      <c r="P386" t="s" s="2">
-        <v>1319</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O386" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="P386" s="2"/>
       <c r="Q386" t="s" s="2">
         <v>79</v>
       </c>
@@ -46049,13 +45855,13 @@
         <v>79</v>
       </c>
       <c r="Y386" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z386" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AA386" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AB386" t="s" s="2">
         <v>79</v>
@@ -46073,19 +45879,19 @@
         <v>79</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1316</v>
+        <v>100</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ386" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK386" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="387">
@@ -46093,45 +45899,45 @@
         <v>1018</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H387" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I387" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J387" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>1321</v>
+        <v>93</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1322</v>
+        <v>342</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1323</v>
+        <v>343</v>
       </c>
       <c r="O387" t="s" s="2">
-        <v>1324</v>
+        <v>96</v>
       </c>
       <c r="P387" t="s" s="2">
-        <v>1325</v>
+        <v>273</v>
       </c>
       <c r="Q387" t="s" s="2">
         <v>79</v>
@@ -46180,19 +45986,19 @@
         <v>79</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1320</v>
+        <v>344</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI387" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AJ387" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK387" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="388">
@@ -46200,10 +46006,10 @@
         <v>1018</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -46211,10 +46017,10 @@
       </c>
       <c r="F388" s="2"/>
       <c r="G388" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H388" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I388" t="s" s="2">
         <v>79</v>
@@ -46223,23 +46029,21 @@
         <v>79</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>329</v>
+        <v>1332</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="N388" t="s" s="2">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="O388" t="s" s="2">
-        <v>1329</v>
-      </c>
-      <c r="P388" t="s" s="2">
-        <v>1330</v>
-      </c>
+        <v>1334</v>
+      </c>
+      <c r="P388" s="2"/>
       <c r="Q388" t="s" s="2">
         <v>79</v>
       </c>
@@ -46287,13 +46091,13 @@
         <v>79</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="AH388" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>79</v>
@@ -46307,10 +46111,10 @@
         <v>1018</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -46318,10 +46122,10 @@
       </c>
       <c r="F389" s="2"/>
       <c r="G389" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H389" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I389" t="s" s="2">
         <v>79</v>
@@ -46330,23 +46134,19 @@
         <v>79</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1333</v>
-      </c>
-      <c r="O389" t="s" s="2">
-        <v>1334</v>
-      </c>
-      <c r="P389" t="s" s="2">
-        <v>1335</v>
-      </c>
+        <v>1337</v>
+      </c>
+      <c r="O389" s="2"/>
+      <c r="P389" s="2"/>
       <c r="Q389" t="s" s="2">
         <v>79</v>
       </c>
@@ -46370,13 +46170,13 @@
         <v>79</v>
       </c>
       <c r="Y389" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Z389" t="s" s="2">
-        <v>79</v>
+        <v>1338</v>
       </c>
       <c r="AA389" t="s" s="2">
-        <v>79</v>
+        <v>1339</v>
       </c>
       <c r="AB389" t="s" s="2">
         <v>79</v>
@@ -46394,2546 +46194,18 @@
         <v>79</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="AH389" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK389" t="s" s="2">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B390" t="s" s="2">
-        <v>1337</v>
-      </c>
-      <c r="C390" t="s" s="2">
-        <v>1337</v>
-      </c>
-      <c r="D390" s="2"/>
-      <c r="E390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F390" s="2"/>
-      <c r="G390" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H390" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L390" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M390" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N390" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O390" s="2"/>
-      <c r="P390" s="2"/>
-      <c r="Q390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R390" s="2"/>
-      <c r="S390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF390" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG390" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH390" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI390" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ390" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AK390" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B391" t="s" s="2">
-        <v>1338</v>
-      </c>
-      <c r="C391" t="s" s="2">
-        <v>1338</v>
-      </c>
-      <c r="D391" s="2"/>
-      <c r="E391" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F391" s="2"/>
-      <c r="G391" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H391" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L391" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M391" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N391" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O391" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P391" s="2"/>
-      <c r="Q391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R391" s="2"/>
-      <c r="S391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG391" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH391" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI391" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ391" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK391" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B392" t="s" s="2">
-        <v>1339</v>
-      </c>
-      <c r="C392" t="s" s="2">
-        <v>1339</v>
-      </c>
-      <c r="D392" s="2"/>
-      <c r="E392" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="F392" s="2"/>
-      <c r="G392" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H392" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J392" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K392" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L392" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M392" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N392" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O392" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P392" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Q392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R392" s="2"/>
-      <c r="S392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG392" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AH392" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI392" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ392" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK392" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B393" t="s" s="2">
-        <v>1340</v>
-      </c>
-      <c r="C393" t="s" s="2">
-        <v>1340</v>
-      </c>
-      <c r="D393" s="2"/>
-      <c r="E393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F393" s="2"/>
-      <c r="G393" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H393" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L393" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M393" t="s" s="2">
-        <v>1341</v>
-      </c>
-      <c r="N393" t="s" s="2">
-        <v>1342</v>
-      </c>
-      <c r="O393" s="2"/>
-      <c r="P393" t="s" s="2">
-        <v>1343</v>
-      </c>
-      <c r="Q393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R393" s="2"/>
-      <c r="S393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y393" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z393" t="s" s="2">
-        <v>1344</v>
-      </c>
-      <c r="AA393" t="s" s="2">
-        <v>1345</v>
-      </c>
-      <c r="AB393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG393" t="s" s="2">
-        <v>1340</v>
-      </c>
-      <c r="AH393" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI393" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ393" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK393" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B394" t="s" s="2">
-        <v>1346</v>
-      </c>
-      <c r="C394" t="s" s="2">
-        <v>1346</v>
-      </c>
-      <c r="D394" s="2"/>
-      <c r="E394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F394" s="2"/>
-      <c r="G394" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H394" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L394" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M394" t="s" s="2">
-        <v>1347</v>
-      </c>
-      <c r="N394" t="s" s="2">
-        <v>1348</v>
-      </c>
-      <c r="O394" s="2"/>
-      <c r="P394" t="s" s="2">
-        <v>1349</v>
-      </c>
-      <c r="Q394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R394" s="2"/>
-      <c r="S394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF394" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG394" t="s" s="2">
-        <v>1346</v>
-      </c>
-      <c r="AH394" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI394" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ394" t="s" s="2">
-        <v>1350</v>
-      </c>
-      <c r="AK394" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B395" t="s" s="2">
-        <v>1351</v>
-      </c>
-      <c r="C395" t="s" s="2">
-        <v>1351</v>
-      </c>
-      <c r="D395" s="2"/>
-      <c r="E395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F395" s="2"/>
-      <c r="G395" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H395" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L395" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M395" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N395" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O395" t="s" s="2">
-        <v>1352</v>
-      </c>
-      <c r="P395" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Q395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R395" s="2"/>
-      <c r="S395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF395" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG395" t="s" s="2">
-        <v>1351</v>
-      </c>
-      <c r="AH395" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI395" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ395" t="s" s="2">
-        <v>1350</v>
-      </c>
-      <c r="AK395" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B396" t="s" s="2">
-        <v>1353</v>
-      </c>
-      <c r="C396" t="s" s="2">
-        <v>1353</v>
-      </c>
-      <c r="D396" s="2"/>
-      <c r="E396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F396" s="2"/>
-      <c r="G396" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H396" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L396" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M396" t="s" s="2">
-        <v>1354</v>
-      </c>
-      <c r="N396" t="s" s="2">
-        <v>1355</v>
-      </c>
-      <c r="O396" s="2"/>
-      <c r="P396" t="s" s="2">
-        <v>1356</v>
-      </c>
-      <c r="Q396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R396" s="2"/>
-      <c r="S396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF396" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG396" t="s" s="2">
-        <v>1353</v>
-      </c>
-      <c r="AH396" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI396" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ396" t="s" s="2">
-        <v>1350</v>
-      </c>
-      <c r="AK396" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B397" t="s" s="2">
-        <v>1357</v>
-      </c>
-      <c r="C397" t="s" s="2">
-        <v>1357</v>
-      </c>
-      <c r="D397" s="2"/>
-      <c r="E397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F397" s="2"/>
-      <c r="G397" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H397" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L397" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M397" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N397" t="s" s="2">
-        <v>1358</v>
-      </c>
-      <c r="O397" s="2"/>
-      <c r="P397" t="s" s="2">
-        <v>1359</v>
-      </c>
-      <c r="Q397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R397" s="2"/>
-      <c r="S397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y397" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z397" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AA397" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AB397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG397" t="s" s="2">
-        <v>1357</v>
-      </c>
-      <c r="AH397" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI397" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ397" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK397" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B398" t="s" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C398" t="s" s="2">
-        <v>1360</v>
-      </c>
-      <c r="D398" s="2"/>
-      <c r="E398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F398" s="2"/>
-      <c r="G398" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H398" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L398" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M398" t="s" s="2">
-        <v>1361</v>
-      </c>
-      <c r="N398" t="s" s="2">
-        <v>1362</v>
-      </c>
-      <c r="O398" s="2"/>
-      <c r="P398" t="s" s="2">
-        <v>1363</v>
-      </c>
-      <c r="Q398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R398" s="2"/>
-      <c r="S398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF398" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG398" t="s" s="2">
-        <v>1360</v>
-      </c>
-      <c r="AH398" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI398" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ398" t="s" s="2">
-        <v>1350</v>
-      </c>
-      <c r="AK398" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B399" t="s" s="2">
-        <v>1364</v>
-      </c>
-      <c r="C399" t="s" s="2">
-        <v>1364</v>
-      </c>
-      <c r="D399" s="2"/>
-      <c r="E399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F399" s="2"/>
-      <c r="G399" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H399" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L399" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M399" t="s" s="2">
-        <v>1365</v>
-      </c>
-      <c r="N399" t="s" s="2">
-        <v>1366</v>
-      </c>
-      <c r="O399" s="2"/>
-      <c r="P399" s="2"/>
-      <c r="Q399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R399" s="2"/>
-      <c r="S399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG399" t="s" s="2">
-        <v>1364</v>
-      </c>
-      <c r="AH399" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI399" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ399" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK399" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B400" t="s" s="2">
-        <v>1367</v>
-      </c>
-      <c r="C400" t="s" s="2">
-        <v>1367</v>
-      </c>
-      <c r="D400" s="2"/>
-      <c r="E400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F400" s="2"/>
-      <c r="G400" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H400" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L400" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M400" t="s" s="2">
-        <v>1368</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>1369</v>
-      </c>
-      <c r="O400" t="s" s="2">
-        <v>1370</v>
-      </c>
-      <c r="P400" t="s" s="2">
-        <v>1371</v>
-      </c>
-      <c r="Q400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R400" s="2"/>
-      <c r="S400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG400" t="s" s="2">
-        <v>1367</v>
-      </c>
-      <c r="AH400" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI400" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ400" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK400" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B401" t="s" s="2">
-        <v>1372</v>
-      </c>
-      <c r="C401" t="s" s="2">
-        <v>1372</v>
-      </c>
-      <c r="D401" s="2"/>
-      <c r="E401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F401" s="2"/>
-      <c r="G401" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H401" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L401" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M401" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N401" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O401" s="2"/>
-      <c r="P401" s="2"/>
-      <c r="Q401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R401" s="2"/>
-      <c r="S401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF401" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG401" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH401" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI401" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ401" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AK401" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B402" t="s" s="2">
-        <v>1373</v>
-      </c>
-      <c r="C402" t="s" s="2">
-        <v>1373</v>
-      </c>
-      <c r="D402" s="2"/>
-      <c r="E402" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F402" s="2"/>
-      <c r="G402" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H402" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L402" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M402" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N402" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O402" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P402" s="2"/>
-      <c r="Q402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R402" s="2"/>
-      <c r="S402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG402" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH402" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI402" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ402" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK402" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B403" t="s" s="2">
-        <v>1374</v>
-      </c>
-      <c r="C403" t="s" s="2">
-        <v>1374</v>
-      </c>
-      <c r="D403" s="2"/>
-      <c r="E403" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="F403" s="2"/>
-      <c r="G403" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H403" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J403" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K403" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L403" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M403" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N403" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O403" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P403" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Q403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R403" s="2"/>
-      <c r="S403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG403" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AH403" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI403" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK403" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B404" t="s" s="2">
-        <v>1375</v>
-      </c>
-      <c r="C404" t="s" s="2">
-        <v>1375</v>
-      </c>
-      <c r="D404" s="2"/>
-      <c r="E404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F404" s="2"/>
-      <c r="G404" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H404" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L404" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M404" t="s" s="2">
-        <v>1376</v>
-      </c>
-      <c r="N404" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O404" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="P404" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Q404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R404" s="2"/>
-      <c r="S404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y404" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z404" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AA404" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AB404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG404" t="s" s="2">
-        <v>1375</v>
-      </c>
-      <c r="AH404" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI404" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK404" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B405" t="s" s="2">
-        <v>1377</v>
-      </c>
-      <c r="C405" t="s" s="2">
-        <v>1377</v>
-      </c>
-      <c r="D405" s="2"/>
-      <c r="E405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F405" s="2"/>
-      <c r="G405" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H405" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L405" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M405" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N405" t="s" s="2">
-        <v>1378</v>
-      </c>
-      <c r="O405" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="P405" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="Q405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R405" s="2"/>
-      <c r="S405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG405" t="s" s="2">
-        <v>1377</v>
-      </c>
-      <c r="AH405" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI405" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK405" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B406" t="s" s="2">
-        <v>1379</v>
-      </c>
-      <c r="C406" t="s" s="2">
-        <v>1379</v>
-      </c>
-      <c r="D406" s="2"/>
-      <c r="E406" t="s" s="2">
-        <v>1380</v>
-      </c>
-      <c r="F406" s="2"/>
-      <c r="G406" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H406" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L406" t="s" s="2">
-        <v>1381</v>
-      </c>
-      <c r="M406" t="s" s="2">
-        <v>1382</v>
-      </c>
-      <c r="N406" t="s" s="2">
-        <v>1383</v>
-      </c>
-      <c r="O406" t="s" s="2">
-        <v>1384</v>
-      </c>
-      <c r="P406" s="2"/>
-      <c r="Q406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R406" s="2"/>
-      <c r="S406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG406" t="s" s="2">
-        <v>1379</v>
-      </c>
-      <c r="AH406" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI406" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ406" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK406" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B407" t="s" s="2">
-        <v>1385</v>
-      </c>
-      <c r="C407" t="s" s="2">
-        <v>1385</v>
-      </c>
-      <c r="D407" s="2"/>
-      <c r="E407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F407" s="2"/>
-      <c r="G407" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H407" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K407" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L407" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M407" t="s" s="2">
-        <v>1386</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>1387</v>
-      </c>
-      <c r="O407" t="s" s="2">
-        <v>1388</v>
-      </c>
-      <c r="P407" t="s" s="2">
-        <v>1389</v>
-      </c>
-      <c r="Q407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R407" s="2"/>
-      <c r="S407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG407" t="s" s="2">
-        <v>1385</v>
-      </c>
-      <c r="AH407" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI407" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ407" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK407" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B408" t="s" s="2">
-        <v>1390</v>
-      </c>
-      <c r="C408" t="s" s="2">
-        <v>1390</v>
-      </c>
-      <c r="D408" s="2"/>
-      <c r="E408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F408" s="2"/>
-      <c r="G408" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H408" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J408" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K408" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L408" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M408" t="s" s="2">
-        <v>1391</v>
-      </c>
-      <c r="N408" t="s" s="2">
-        <v>1392</v>
-      </c>
-      <c r="O408" t="s" s="2">
-        <v>1393</v>
-      </c>
-      <c r="P408" t="s" s="2">
-        <v>1394</v>
-      </c>
-      <c r="Q408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R408" s="2"/>
-      <c r="S408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG408" t="s" s="2">
-        <v>1390</v>
-      </c>
-      <c r="AH408" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI408" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ408" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK408" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B409" t="s" s="2">
-        <v>1395</v>
-      </c>
-      <c r="C409" t="s" s="2">
-        <v>1395</v>
-      </c>
-      <c r="D409" s="2"/>
-      <c r="E409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F409" s="2"/>
-      <c r="G409" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H409" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L409" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M409" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N409" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
-      <c r="Q409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R409" s="2"/>
-      <c r="S409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF409" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG409" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH409" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI409" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ409" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AK409" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B410" t="s" s="2">
-        <v>1396</v>
-      </c>
-      <c r="C410" t="s" s="2">
-        <v>1396</v>
-      </c>
-      <c r="D410" s="2"/>
-      <c r="E410" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F410" s="2"/>
-      <c r="G410" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H410" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L410" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M410" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N410" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O410" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P410" s="2"/>
-      <c r="Q410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R410" s="2"/>
-      <c r="S410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG410" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH410" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI410" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK410" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B411" t="s" s="2">
-        <v>1397</v>
-      </c>
-      <c r="C411" t="s" s="2">
-        <v>1397</v>
-      </c>
-      <c r="D411" s="2"/>
-      <c r="E411" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="F411" s="2"/>
-      <c r="G411" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H411" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J411" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K411" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L411" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M411" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N411" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O411" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="P411" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Q411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R411" s="2"/>
-      <c r="S411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG411" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AH411" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI411" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK411" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B412" t="s" s="2">
-        <v>1398</v>
-      </c>
-      <c r="C412" t="s" s="2">
-        <v>1398</v>
-      </c>
-      <c r="D412" s="2"/>
-      <c r="E412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F412" s="2"/>
-      <c r="G412" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H412" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K412" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L412" t="s" s="2">
-        <v>1399</v>
-      </c>
-      <c r="M412" t="s" s="2">
-        <v>1400</v>
-      </c>
-      <c r="N412" t="s" s="2">
-        <v>1392</v>
-      </c>
-      <c r="O412" t="s" s="2">
-        <v>1401</v>
-      </c>
-      <c r="P412" s="2"/>
-      <c r="Q412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R412" s="2"/>
-      <c r="S412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG412" t="s" s="2">
-        <v>1398</v>
-      </c>
-      <c r="AH412" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI412" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ412" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK412" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B413" t="s" s="2">
-        <v>1402</v>
-      </c>
-      <c r="C413" t="s" s="2">
-        <v>1402</v>
-      </c>
-      <c r="D413" s="2"/>
-      <c r="E413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F413" s="2"/>
-      <c r="G413" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H413" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K413" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L413" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M413" t="s" s="2">
-        <v>1403</v>
-      </c>
-      <c r="N413" t="s" s="2">
-        <v>1404</v>
-      </c>
-      <c r="O413" s="2"/>
-      <c r="P413" s="2"/>
-      <c r="Q413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R413" s="2"/>
-      <c r="S413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y413" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z413" t="s" s="2">
-        <v>1405</v>
-      </c>
-      <c r="AA413" t="s" s="2">
-        <v>1406</v>
-      </c>
-      <c r="AB413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG413" t="s" s="2">
-        <v>1402</v>
-      </c>
-      <c r="AH413" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI413" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ413" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK413" t="s" s="2">
         <v>129</v>
       </c>
     </row>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
